--- a/choi/액셀/20917-최수혁-202304-A.xlsx
+++ b/choi/액셀/20917-최수혁-202304-A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +688,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1208,10 @@
       <c r="H5" s="18">
         <v>295</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="14">
+        <f>CHOOSE(MID(B5,3,1),2000,1000,0)</f>
+        <v>2000</v>
+      </c>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1209,7 +1236,10 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="27">
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
+        <v>1000</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1234,7 +1264,10 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1259,7 +1292,10 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1284,7 +1320,10 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1309,7 +1348,10 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1334,7 +1376,10 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1359,34 +1404,37 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
@@ -1461,9 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1613,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,8 +1719,89 @@
         <v>94</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>80</v>
+      </c>
+      <c r="B9" s="37">
+        <v>90</v>
+      </c>
+      <c r="C9" s="37">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <f>SUM(A9:C9)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>AVERAGE(A9:C9)</f>
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f>COUNT(A9:C9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f>COUNTA(A9:C9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>MAX(A9:C9)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>MIN(A9:C9)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>LEFT(A8,2)</f>
+        <v>국어</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f>RIGHT(A8,3)</f>
+        <v>국어</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>MID(C1,2,3)</f>
+        <v>학</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f>CHOOSE(3,"가","나","다","라","마")</f>
+        <v>다</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/choi/액셀/20917-최수혁-202304-A.xlsx
+++ b/choi/액셀/20917-최수혁-202304-A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -432,21 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -606,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,7 +607,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,28 +625,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,57 +658,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -817,15 +807,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
+      <xdr:colOff>435428</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:rowOff>24831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7993</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>234496</xdr:rowOff>
+      <xdr:rowOff>223610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,7 +839,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4952999" y="35717"/>
+          <a:off x="5029199" y="24831"/>
           <a:ext cx="2059951" cy="547122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,7 +1128,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1146,11 +1136,11 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1158,61 +1148,64 @@
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>44630</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>25</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>15000</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>295</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f>CHOOSE(MID(B5,3,1),2000,1000,0)</f>
         <v>2000</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="14" t="str">
+        <f>IF(AND(F5&gt;=15,H5&gt;=300),"A","B")</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1227,7 +1220,7 @@
       <c r="E6" s="8">
         <v>44915</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -1236,11 +1229,14 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
         <v>1000</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="14" t="str">
+        <f t="shared" ref="J6:J12" si="1">IF(AND(F6&gt;=15,H6&gt;=300),"A","B")</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1255,7 +1251,7 @@
       <c r="E7" s="8">
         <v>44844</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>15</v>
       </c>
       <c r="G7" s="4">
@@ -1264,11 +1260,14 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -1283,7 +1282,7 @@
       <c r="E8" s="8">
         <v>44701</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>12</v>
       </c>
       <c r="G8" s="4">
@@ -1292,11 +1291,14 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1311,7 +1313,7 @@
       <c r="E9" s="8">
         <v>44783</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1320,11 +1322,14 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1339,7 +1344,7 @@
       <c r="E10" s="8">
         <v>44885</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>22</v>
       </c>
       <c r="G10" s="4">
@@ -1348,11 +1353,14 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -1367,7 +1375,7 @@
       <c r="E11" s="8">
         <v>44602</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>9</v>
       </c>
       <c r="G11" s="4">
@@ -1376,26 +1384,29 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>44581</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>16</v>
       </c>
       <c r="G12" s="5">
@@ -1404,11 +1415,14 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1417,14 +1431,20 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="13" t="str">
+        <f>COUNTIF(D5:D12,"한식")&amp;"개"</f>
+        <v>3개</v>
+      </c>
       <c r="F13" s="35"/>
       <c r="G13" s="28" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="14">
+        <f>MIN(메뉴수)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -1433,18 +1453,24 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10">
+        <f>DSUM(B4:H12,H4,D4:D5)</f>
+        <v>1053</v>
+      </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12">
+        <f>VLOOKUP(H14,B5:H12,7,FALSE)</f>
+        <v>295</v>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1456,6 +1482,11 @@
     <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H5&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -1659,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,24 +1751,24 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
+      <c r="A9" s="27">
         <v>80</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="27">
         <v>90</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="27">
         <v>95</v>
       </c>
       <c r="E9">
@@ -1781,22 +1812,34 @@
         <v>국어</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="str">
         <f>RIGHT(A8,3)</f>
         <v>국어</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="str">
         <f>MID(C1,2,3)</f>
         <v>학</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E19" t="str">
         <f>CHOOSE(3,"가","나","다","라","마")</f>
         <v>다</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="str">
+        <f>IF(AND(F5&gt;=15,H5&gt;=300),"A","B")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="b">
+        <f>AND(1&lt;2,3&gt;1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/choi/액셀/20917-최수혁-202304-A.xlsx
+++ b/choi/액셀/20917-최수혁-202304-A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="메뉴수">'제 1작업'!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +288,19 @@
   </si>
   <si>
     <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소주문금액
+(단위:원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2021-09-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -378,51 +394,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -582,6 +553,125 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,100 +697,145 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +843,210 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#&quot;개&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -860,6 +1198,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B18:E22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="B18:E22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드번호" dataDxfId="7"/>
+    <tableColumn id="2" name="업체명" dataDxfId="6"/>
+    <tableColumn id="3" name="메뉴수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="전월배달건수" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1147,32 +1498,32 @@
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1189,7 +1540,7 @@
       <c r="E5" s="16">
         <v>44630</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>25</v>
       </c>
       <c r="G5" s="17">
@@ -1218,9 +1569,9 @@
         <v>19</v>
       </c>
       <c r="E6" s="8">
-        <v>44915</v>
-      </c>
-      <c r="F6" s="24">
+        <v>44185</v>
+      </c>
+      <c r="F6" s="20">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -1229,7 +1580,7 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
         <v>1000</v>
       </c>
@@ -1249,9 +1600,9 @@
         <v>21</v>
       </c>
       <c r="E7" s="8">
-        <v>44844</v>
-      </c>
-      <c r="F7" s="24">
+        <v>44479</v>
+      </c>
+      <c r="F7" s="20">
         <v>15</v>
       </c>
       <c r="G7" s="4">
@@ -1260,7 +1611,7 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1282,7 +1633,7 @@
       <c r="E8" s="8">
         <v>44701</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>12</v>
       </c>
       <c r="G8" s="4">
@@ -1291,7 +1642,7 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1311,9 +1662,9 @@
         <v>20</v>
       </c>
       <c r="E9" s="8">
-        <v>44783</v>
-      </c>
-      <c r="F9" s="24">
+        <v>44418</v>
+      </c>
+      <c r="F9" s="20">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1322,7 +1673,7 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1342,9 +1693,9 @@
         <v>23</v>
       </c>
       <c r="E10" s="8">
-        <v>44885</v>
-      </c>
-      <c r="F10" s="24">
+        <v>44520</v>
+      </c>
+      <c r="F10" s="20">
         <v>22</v>
       </c>
       <c r="G10" s="4">
@@ -1353,7 +1704,7 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -1375,7 +1726,7 @@
       <c r="E11" s="8">
         <v>44602</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>9</v>
       </c>
       <c r="G11" s="4">
@@ -1384,7 +1735,7 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -1406,7 +1757,7 @@
       <c r="E12" s="11">
         <v>44581</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <v>16</v>
       </c>
       <c r="G12" s="5">
@@ -1415,7 +1766,7 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1458,13 +1809,13 @@
         <v>1053</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="12">
@@ -1483,7 +1834,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$H5&lt;300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1500,20 +1851,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16">
+        <v>44630</v>
+      </c>
+      <c r="F3" s="19">
+        <v>25</v>
+      </c>
+      <c r="G3" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44185</v>
+      </c>
+      <c r="F4" s="20">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44479</v>
+      </c>
+      <c r="F5" s="20">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44701</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44418</v>
+      </c>
+      <c r="F7" s="20">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44520</v>
+      </c>
+      <c r="F8" s="20">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44602</v>
+      </c>
+      <c r="F9" s="20">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9900</v>
+      </c>
+      <c r="H9" s="4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44581</v>
+      </c>
+      <c r="F10" s="21">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="20">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="42">
+        <v>9</v>
+      </c>
+      <c r="E22" s="43">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$H3&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1751,24 +2437,24 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="23">
         <v>80</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <v>90</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>95</v>
       </c>
       <c r="E9">

--- a/choi/액셀/20917-최수혁-202304-A.xlsx
+++ b/choi/액셀/20917-최수혁-202304-A.xlsx
@@ -12,16 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="제 1작업" sheetId="5" r:id="rId1"/>
-    <sheet name="제2작업" sheetId="6" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
+    <sheet name="제4작업" sheetId="11" r:id="rId1"/>
+    <sheet name="제 1작업" sheetId="5" r:id="rId2"/>
+    <sheet name="제2작업" sheetId="6" r:id="rId3"/>
+    <sheet name="제3작업" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">제2작업!$B$18:$E$18</definedName>
     <definedName name="메뉴수">'제 1작업'!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>업체명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +293,55 @@
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소주문금액
+(단위:원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2021-09-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>서양식</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>한식</t>
+  </si>
+  <si>
+    <t>개수 : 업체명</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>메뉴수</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>평균 : 최소주문금액(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -378,51 +434,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -582,6 +593,125 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,17 +737,62 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,10 +800,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,44 +860,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,25 +878,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +904,216 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#&quot;개&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -729,7 +1134,1288 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>한식 및 중식 등록업체 현황분석</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>최소주문금액(단위:원)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FF3D-44DB-A507-7ADB28B6A0F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('제 1작업'!$C$5,'제 1작업'!$C$6,'제 1작업'!$C$8,'제 1작업'!$C$9,'제 1작업'!$C$10,'제 1작업'!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한옥마을</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>초이반점</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>오늘된장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>사천성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>북경</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>장수본가</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('제 1작업'!$G$5,'제 1작업'!$G$6,'제 1작업'!$G$8,'제 1작업'!$G$9,'제 1작업'!$G$10,'제 1작업'!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF3D-44DB-A507-7ADB28B6A0F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="535293791"/>
+        <c:axId val="535291711"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'제 1작업'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>메뉴수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>('제 1작업'!$C$5,'제 1작업'!$C$6,'제 1작업'!$C$8,'제 1작업'!$C$9,'제 1작업'!$C$10,'제 1작업'!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한옥마을</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>초이반점</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>오늘된장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>사천성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>북경</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>장수본가</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('제 1작업'!$F$5,'제 1작업'!$F$6,'제 1작업'!$F$8,'제 1작업'!$F$9,'제 1작업'!$F$10,'제 1작업'!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#"개"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF3D-44DB-A507-7ADB28B6A0F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="538736511"/>
+        <c:axId val="363744191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="535293791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535291711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535291711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535293791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363744191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#&quot;개&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538736511"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="538736511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363744191"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38171</cdr:x>
+      <cdr:y>0.17073</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54027</cdr:x>
+      <cdr:y>0.26573</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3552357" y="1038381"/>
+          <a:ext cx="1475594" cy="577746"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71098"/>
+            <a:gd name="adj2" fmla="val -29392"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>전원배달건수</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -860,6 +2546,290 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45070.592963657407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제 1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="코드번호" numFmtId="0">
+      <sharedItems count="8">
+        <s v="KA1-001"/>
+        <s v="CH2-001"/>
+        <s v="WE2-001"/>
+        <s v="KA3-002"/>
+        <s v="CH3-002"/>
+        <s v="CH1-003"/>
+        <s v="WE1-002"/>
+        <s v="KA2-003"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="업체명" numFmtId="0">
+      <sharedItems count="8">
+        <s v="한옥마을"/>
+        <s v="초이반점"/>
+        <s v="영파스타"/>
+        <s v="오늘된장"/>
+        <s v="사천성"/>
+        <s v="북경"/>
+        <s v="버텍스"/>
+        <s v="장수본가"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="분류" numFmtId="0">
+      <sharedItems count="3">
+        <s v="한식"/>
+        <s v="중식"/>
+        <s v="서양식"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="등록일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-12-20T00:00:00" maxDate="2022-05-21T00:00:00"/>
+    </cacheField>
+    <cacheField name="메뉴수" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="25" count="8">
+        <n v="25"/>
+        <n v="20"/>
+        <n v="15"/>
+        <n v="12"/>
+        <n v="17"/>
+        <n v="22"/>
+        <n v="9"/>
+        <n v="16"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" startNum="1" endNum="30" groupInterval="10"/>
+        <groupItems count="5">
+          <s v="&lt;1"/>
+          <s v="1-10"/>
+          <s v="11-20"/>
+          <s v="21-30"/>
+          <s v="&gt;31"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="최소주문금액_x000a_(단위:원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9000" maxValue="16000"/>
+    </cacheField>
+    <cacheField name="전월배달건수" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="198" maxValue="422"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2022-03-10T00:00:00"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <n v="295"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="2020-12-20T00:00:00"/>
+    <x v="1"/>
+    <n v="16000"/>
+    <n v="422"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="2021-10-10T00:00:00"/>
+    <x v="2"/>
+    <n v="15000"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <d v="2022-05-20T00:00:00"/>
+    <x v="3"/>
+    <n v="9000"/>
+    <n v="343"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <d v="2021-08-10T00:00:00"/>
+    <x v="4"/>
+    <n v="11000"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <d v="2021-11-20T00:00:00"/>
+    <x v="5"/>
+    <n v="15000"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
+    <d v="2022-02-10T00:00:00"/>
+    <x v="6"/>
+    <n v="9900"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <d v="2022-01-20T00:00:00"/>
+    <x v="7"/>
+    <n v="13000"/>
+    <n v="415"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="메뉴수" colHeaderCaption="분류">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="176" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+    <pivotField numFmtId="41" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 업체명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 최소주문금액(단위:원)" fld="5" subtotal="average" baseField="4" baseItem="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B18:E22" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B18:E22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드번호" dataDxfId="5"/>
+    <tableColumn id="2" name="업체명" dataDxfId="4"/>
+    <tableColumn id="3" name="메뉴수" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="전월배달건수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G12" activeCellId="20" sqref="C4 F4 G4 C5 F5 G5 C6 F6 G6 C8 F8 G8 C9 F9 G9 C10 F10 G10 C12 F12 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1147,32 +3117,32 @@
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1189,7 +3159,7 @@
       <c r="E5" s="16">
         <v>44630</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>25</v>
       </c>
       <c r="G5" s="17">
@@ -1218,9 +3188,9 @@
         <v>19</v>
       </c>
       <c r="E6" s="8">
-        <v>44915</v>
-      </c>
-      <c r="F6" s="24">
+        <v>44185</v>
+      </c>
+      <c r="F6" s="20">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -1229,7 +3199,7 @@
       <c r="H6" s="4">
         <v>422</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="22">
         <f t="shared" ref="I6:I12" si="0">CHOOSE(MID(B6,3,1),2000,1000,0)</f>
         <v>1000</v>
       </c>
@@ -1249,9 +3219,9 @@
         <v>21</v>
       </c>
       <c r="E7" s="8">
-        <v>44844</v>
-      </c>
-      <c r="F7" s="24">
+        <v>44479</v>
+      </c>
+      <c r="F7" s="20">
         <v>15</v>
       </c>
       <c r="G7" s="4">
@@ -1260,7 +3230,7 @@
       <c r="H7" s="4">
         <v>198</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1282,7 +3252,7 @@
       <c r="E8" s="8">
         <v>44701</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>12</v>
       </c>
       <c r="G8" s="4">
@@ -1291,7 +3261,7 @@
       <c r="H8" s="4">
         <v>343</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1311,9 +3281,9 @@
         <v>20</v>
       </c>
       <c r="E9" s="8">
-        <v>44783</v>
-      </c>
-      <c r="F9" s="24">
+        <v>44418</v>
+      </c>
+      <c r="F9" s="20">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1322,7 +3292,7 @@
       <c r="H9" s="4">
         <v>385</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1342,9 +3312,9 @@
         <v>23</v>
       </c>
       <c r="E10" s="8">
-        <v>44885</v>
-      </c>
-      <c r="F10" s="24">
+        <v>44520</v>
+      </c>
+      <c r="F10" s="20">
         <v>22</v>
       </c>
       <c r="G10" s="4">
@@ -1353,7 +3323,7 @@
       <c r="H10" s="4">
         <v>225</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -1375,7 +3345,7 @@
       <c r="E11" s="8">
         <v>44602</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>9</v>
       </c>
       <c r="G11" s="4">
@@ -1384,7 +3354,7 @@
       <c r="H11" s="4">
         <v>398</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -1406,7 +3376,7 @@
       <c r="E12" s="11">
         <v>44581</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <v>16</v>
       </c>
       <c r="G12" s="5">
@@ -1415,7 +3385,7 @@
       <c r="H12" s="5">
         <v>415</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1426,21 +3396,21 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="13" t="str">
         <f>COUNTIF(D5:D12,"한식")&amp;"개"</f>
         <v>3개</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="14">
         <f>MIN(메뉴수)</f>
         <v>9</v>
@@ -1448,23 +3418,23 @@
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="10">
         <f>DSUM(B4:H12,H4,D4:D5)</f>
         <v>1053</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="12">
@@ -1483,11 +3453,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$H5&lt;300</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
     </dataValidation>
@@ -1500,37 +3470,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16">
+        <v>44630</v>
+      </c>
+      <c r="F3" s="19">
+        <v>25</v>
+      </c>
+      <c r="G3" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44185</v>
+      </c>
+      <c r="F4" s="20">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44479</v>
+      </c>
+      <c r="F5" s="20">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44701</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44418</v>
+      </c>
+      <c r="F7" s="20">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44520</v>
+      </c>
+      <c r="F8" s="20">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44602</v>
+      </c>
+      <c r="F9" s="20">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9900</v>
+      </c>
+      <c r="H9" s="4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44581</v>
+      </c>
+      <c r="F10" s="21">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="20">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="33">
+        <v>9</v>
+      </c>
+      <c r="E22" s="34">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$H3&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1</v>
+      </c>
+      <c r="H5" s="58">
+        <v>9900</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="58">
+        <v>2</v>
+      </c>
+      <c r="D6" s="58">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="58">
+        <v>2</v>
+      </c>
+      <c r="F6" s="58">
+        <v>13500</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58">
+        <v>15000</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="58">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="58">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3</v>
+      </c>
+      <c r="D8" s="58">
+        <v>12333.333333333334</v>
+      </c>
+      <c r="E8" s="58">
+        <v>3</v>
+      </c>
+      <c r="F8" s="58">
+        <v>14000</v>
+      </c>
+      <c r="G8" s="58">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58">
+        <v>12450</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1751,24 +4365,24 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="23">
         <v>80</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <v>90</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>95</v>
       </c>
       <c r="E9">
